--- a/biology/Botanique/Cypripedium_reginae/Cypripedium_reginae.xlsx
+++ b/biology/Botanique/Cypripedium_reginae/Cypripedium_reginae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypripède royal
 Le cypripède royal, Cypripedium reginae est la plus grande et la plus spectaculaire orchidée d’Amérique du Nord.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Showy Lady’s-Slipper, Cypripède royal, Queen lady’s-slipper, Cypripedium spectabile Salisbury, Royal Lady’s Slipper.
 </t>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cypripède royal peut atteindre jusqu’à un mètre de hauteur. Sa tige florale, mesurant entre 40 et 80 cm de haut, provient directement du très gros rhizome cylindrique. Elle est robuste et forte, hirsute, avec des feuilles jusqu’au sommet. Les 3 à 9 feuilles sont ovales à elliptiques.
 Sur ces hautes tiges, une ou deux fleurs apparaissent (rarement jusqu'à 4). Elles sont alternées et distribuées sur tout le long de la tige. Elles présentent des sépales et des pétales blancs. Le labelle, très gonflé, présente une coloration allant de rose pâle à magenta.
@@ -577,7 +593,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De la fin du printemps, au début de l’été (de mai à août)
 </t>
@@ -608,7 +626,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypripedium reginae se reproduit le plus souvent de façon végétative. Cette façon de se reproduire donne naissance à des clones possédant exactement le même matériel génétique. Une population de cypripèdes royaux présente donc une très faible variation génétique.
 Le cypripède royal, bien qu’il soit le plus grand représentant des orchidées au Québec, possède probablement le plus petit orifice du labelle. Chez le C. acaule, l’orifice est assez grand pour laisser passer les bourdons mais celui de C. reginae semble être trop petit pour laisser passer ces insectes. Son pollinisateur n’est pas encore connu avec exactitude mais, une abeille noire, probablement de la famille des mégachiles, a été observée entrant dans son labelle. Cette abeille en est ressortie couverte de pollen. Une autre étude effectuée au Vermont démontre que la pollinisation de cette orchidée y est faite la plupart du temps par une mouche (Syrphus torvus) et par la « flower beetle » (Trichiotinus assimilis). En résumé, l’insecte ou les insectes capables de polliniser le cypripède royal nous sont encore inconnus.
@@ -644,7 +664,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cypripède royal se développe dans les habitats humides des régions nordiques. Les tourbières, les marécages et les rives des lacs font partie de ses lieux privilégiés. Il habite aussi les forêts de conifères ou de feuillus. Il croît entre 0 et 600 mètres d’altitude.
 Il préfère les sols calcaires mais pousse sur les sols légèrement acides à légèrement basiques. Kéry (2004) rapporte un sol au pH de 5,8 à 6,8 tandis que Curtis (1943) décrit les conditions favorables à la germination de C. reginae ayant un pH se situant entre 6,9 et 7,7. Les graines situées sous un couvert de sphaigne dense ne peuvent germer à cause de l’acidité trop grande. Une humidité constante du sol et le semi-ombrage sont des conditions favorables à la croissance de cette orchidée. Le cypripède royal est vulnérable à la sécheresse prolongée et un ombrage excessif nuit gravement à sa croissance.
@@ -677,7 +699,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cypripède royal habite tout l’est de l’Amérique du Nord. A l’ouest, il croît jusqu’en Saskatchewan et au Dakota du Nord et jusqu’en Arkansas au sud.
 Il est largement distribué et de nombreuses grandes populations de plus de 1000 individus ont été dénombrées. La majorité des populations sont beaucoup plus restreintes et comptent entre 10 et 100 individus.
